--- a/_Experiments/_PROTOCOLs/_Surgery/_templates/Implant_3chan_Wire-RPC-EMG_KK01.xlsx
+++ b/_Experiments/_PROTOCOLs/_Surgery/_templates/Implant_3chan_Wire-RPC-EMG_KK01.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korkam\Documents\GitHub\KamLab\_Experiments\_PROTOCOLs\_Surgery\_templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1989" yWindow="463" windowWidth="11751" windowHeight="10183"/>
+    <workbookView xWindow="1990" yWindow="460" windowWidth="11750" windowHeight="10180"/>
   </bookViews>
   <sheets>
     <sheet name="implant" sheetId="2" r:id="rId1"/>
@@ -30,7 +25,7 @@
     <author>Kam, Korey</author>
   </authors>
   <commentList>
-    <comment ref="A5" authorId="0" shapeId="0">
+    <comment ref="A5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0" shapeId="0">
+    <comment ref="A6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0" shapeId="0">
+    <comment ref="B8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1117,8 +1112,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5660571" y="3697514"/>
-          <a:ext cx="1572078" cy="1451429"/>
+          <a:off x="5588000" y="3733800"/>
+          <a:ext cx="1555749" cy="1473200"/>
           <a:chOff x="1389436" y="4869418"/>
           <a:chExt cx="1796425" cy="1474232"/>
         </a:xfrm>
@@ -1308,15 +1303,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>27214</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>21771</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1338943</xdr:colOff>
+          <xdr:colOff>1339850</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>239486</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1329,7 +1324,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1337,17 +1332,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1420,7 +1404,7 @@
                     <m:fPr>
                       <m:ctrlPr>
                         <a:rPr lang="en-US" sz="1100" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:fPr>
@@ -1776,7 +1760,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1811,7 +1795,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2026,24 +2010,24 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25" defaultRowHeight="20.05" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="25" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.4609375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.07421875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.23046875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.15234375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.3828125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.61328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.07421875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.26953125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.36328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -2054,7 +2038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -2062,7 +2046,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="22" customFormat="1" ht="25.3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" s="22" customFormat="1" ht="25.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
@@ -2088,7 +2072,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -2114,7 +2098,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -2140,7 +2124,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
@@ -2160,7 +2144,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -2174,7 +2158,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -2200,7 +2184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="20.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -2226,7 +2210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
@@ -2240,7 +2224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="25.3" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="25.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -2260,7 +2244,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20.05" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B13" s="20"/>
       <c r="F13" s="13">
         <v>0.1</v>
@@ -2270,7 +2254,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="18" t="s">
         <v>24</v>
       </c>
@@ -2278,7 +2262,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="4:7" ht="20.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="4:7" ht="20" customHeight="1" x14ac:dyDescent="0.5">
       <c r="F17" s="19" t="s">
         <v>25</v>
       </c>
@@ -2286,7 +2270,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="4:7" ht="20.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="4:7" ht="20" customHeight="1" x14ac:dyDescent="0.5">
       <c r="F18" s="19" t="s">
         <v>26</v>
       </c>
@@ -2294,7 +2278,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="4:7" ht="20.05" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="4:7" ht="20" customHeight="1" x14ac:dyDescent="0.5">
       <c r="F19" s="19" t="s">
         <v>27</v>
       </c>
@@ -2302,12 +2286,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="4:7" ht="12.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:7" ht="12.5" x14ac:dyDescent="0.3">
       <c r="D25" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="4:7" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D26" s="1" t="s">
         <v>36</v>
       </c>
@@ -2315,7 +2299,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="4:7" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D27" s="1" t="s">
         <v>37</v>
       </c>
@@ -2323,7 +2307,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="4:7" ht="20.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:7" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D28" s="1" t="s">
         <v>38</v>
       </c>
@@ -2344,15 +2328,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>27214</xdr:colOff>
+                <xdr:colOff>25400</xdr:colOff>
                 <xdr:row>15</xdr:row>
-                <xdr:rowOff>21771</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>1338943</xdr:colOff>
+                <xdr:colOff>1339850</xdr:colOff>
                 <xdr:row>28</xdr:row>
-                <xdr:rowOff>239486</xdr:rowOff>
+                <xdr:rowOff>241300</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
